--- a/mbs-EP-v.1.0.1/Excel Files/mcpherson_2d.xlsx
+++ b/mbs-EP-v.1.0.1/Excel Files/mcpherson_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63B6E1-6D3E-4FD6-9798-DDB3BB066E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF62A3-1DC5-4653-86B2-9BEBB091829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="257">
   <si>
     <t>Mass</t>
   </si>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C3" s="82"/>
       <c r="D3" s="49">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>22</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="49">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>22</v>
@@ -2902,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
@@ -6681,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -7815,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7872,9 +7872,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
       <c r="D3">
         <v>4</v>
       </c>
